--- a/scripts/plantillas/plantillas mesa de ayuda/04_Organizacion/contactos.xlsx
+++ b/scripts/plantillas/plantillas mesa de ayuda/04_Organizacion/contactos.xlsx
@@ -4,7 +4,6 @@
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
-    <sheet name="Instrucciones" sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -398,278 +397,2035 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <cols>
-    <col min="1" max="1" width="15.83203125" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>nombre</v>
+        <v>name</v>
       </c>
       <c r="B1" t="str">
+        <v>firstname</v>
+      </c>
+      <c r="C1" t="str">
         <v>email</v>
       </c>
-      <c r="C1" t="str">
-        <v>telefono</v>
-      </c>
       <c r="D1" t="str">
-        <v>movil</v>
+        <v>phone</v>
       </c>
       <c r="E1" t="str">
-        <v>direccion</v>
+        <v>supplier</v>
       </c>
       <c r="F1" t="str">
-        <v>ciudad</v>
-      </c>
-      <c r="G1" t="str">
-        <v>puesto</v>
-      </c>
-      <c r="H1" t="str">
-        <v>comentario</v>
+        <v>comment</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Juan Pérez</v>
+        <v>mesquivel.ieepm</v>
       </c>
       <c r="B2" t="str">
-        <v>juan@proveedor.com</v>
+        <v/>
       </c>
       <c r="C2" t="str">
-        <v>5512345678</v>
+        <v>mesquivel.ieepm@gmail.com</v>
       </c>
       <c r="D2" t="str">
-        <v>5598765432</v>
+        <v>+52 722 617 7654</v>
       </c>
       <c r="E2" t="str">
-        <v>Av. Principal 123</v>
+        <v>IEEPM, INGENIEROS ESPECIALISTAS EN PROYECTOS Y MANTENIMIENTO</v>
       </c>
       <c r="F2" t="str">
-        <v>CDMX</v>
-      </c>
-      <c r="G2" t="str">
-        <v>Gerente de Ventas</v>
-      </c>
-      <c r="H2" t="str">
-        <v/>
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>cecilia.indo</v>
+      </c>
+      <c r="B3" t="str">
+        <v/>
+      </c>
+      <c r="C3" t="str">
+        <v>cecilia.indo@kof.com</v>
+      </c>
+      <c r="D3" t="str">
+        <v>+52 922 175 8089</v>
+      </c>
+      <c r="E3" t="str">
+        <v>COMERCIALIZADORA MIRMUSA</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Técnico de Seguridad</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>seguridad</v>
+      </c>
+      <c r="B4" t="str">
+        <v/>
+      </c>
+      <c r="C4" t="str">
+        <v>seguridad@ctsingenieria.com</v>
+      </c>
+      <c r="D4" t="str">
+        <v>+52 729 149 4024</v>
+      </c>
+      <c r="E4" t="str">
+        <v>CTSINGENIERIA</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>MJLOPEZ</v>
+      </c>
+      <c r="B5" t="str">
+        <v/>
+      </c>
+      <c r="C5" t="str">
+        <v>MJLOPEZ@MOMATT.COM</v>
+      </c>
+      <c r="D5" t="str">
+        <v>+52 555 008 7611</v>
+      </c>
+      <c r="E5" t="str">
+        <v>MOMATT</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>erika.rodriguez</v>
+      </c>
+      <c r="B6" t="str">
+        <v/>
+      </c>
+      <c r="C6" t="str">
+        <v>erika.rodriguez@netpoint.com.mx</v>
+      </c>
+      <c r="D6" t="str">
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <v>NETPOINT SA DE CV</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>itzel.munoz</v>
+      </c>
+      <c r="B7" t="str">
+        <v/>
+      </c>
+      <c r="C7" t="str">
+        <v>itzel.munoz@kof.com</v>
+      </c>
+      <c r="D7" t="str">
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <v>CSI MG S DE R.L DE C.V</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Técnico de Seguridad</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>jesus.angel</v>
+      </c>
+      <c r="B8" t="str">
+        <v/>
+      </c>
+      <c r="C8" t="str">
+        <v>jesus.angel@kof.com</v>
+      </c>
+      <c r="D8" t="str">
+        <v>+52 221 182 8779</v>
+      </c>
+      <c r="E8" t="str">
+        <v>SISTEMAS Y SERVICIOS ELECTRICOS DE PUEBLA</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Técnico de Seguridad</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>erika.coprinci</v>
+      </c>
+      <c r="B9" t="str">
+        <v/>
+      </c>
+      <c r="C9" t="str">
+        <v>erika.coprinci@gmail.com</v>
+      </c>
+      <c r="D9" t="str">
+        <v>+52 443 121 2200</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Grupo Coprinci S. A. de C. V.</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>marcela.maldonado</v>
+      </c>
+      <c r="B10" t="str">
+        <v/>
+      </c>
+      <c r="C10" t="str">
+        <v>marcela.maldonado@kof.com</v>
+      </c>
+      <c r="D10" t="str">
+        <v>+52 552 086 4693</v>
+      </c>
+      <c r="E10" t="str">
+        <v>NETPOINT SA DE CV</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Técnico de Seguridad</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>janet.mendez</v>
+      </c>
+      <c r="B11" t="str">
+        <v/>
+      </c>
+      <c r="C11" t="str">
+        <v>janet.mendez@kof.com</v>
+      </c>
+      <c r="D11" t="str">
+        <v>+52 744 503 7660</v>
+      </c>
+      <c r="E11" t="str">
+        <v>ARGONEROS DEL SURESTE</v>
+      </c>
+      <c r="F11" t="str">
+        <v>Técnico de Seguridad</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>argoneros_2011_fama</v>
+      </c>
+      <c r="B12" t="str">
+        <v/>
+      </c>
+      <c r="C12" t="str">
+        <v>argoneros_2011_fama@hotmail.com</v>
+      </c>
+      <c r="D12" t="str">
+        <v>+52 993 389 9088</v>
+      </c>
+      <c r="E12" t="str">
+        <v>ARGONEROS DEL SURESTE</v>
+      </c>
+      <c r="F12" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>MARIA.GIL</v>
+      </c>
+      <c r="B13" t="str">
+        <v/>
+      </c>
+      <c r="C13" t="str">
+        <v>MARIA.GIL@GLOBALFL.COM.MX</v>
+      </c>
+      <c r="D13" t="str">
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <v>MONTACARGAS Y PARTES ROCA</v>
+      </c>
+      <c r="F13" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>auxiliar1</v>
+      </c>
+      <c r="B14" t="str">
+        <v/>
+      </c>
+      <c r="C14" t="str">
+        <v>auxiliar1@fireandocntrols.com</v>
+      </c>
+      <c r="D14" t="str">
+        <v>+52 722 564 6696</v>
+      </c>
+      <c r="E14" t="str">
+        <v>FIRE AND CONTROLS</v>
+      </c>
+      <c r="F14" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>auxiliar1</v>
+      </c>
+      <c r="B15" t="str">
+        <v/>
+      </c>
+      <c r="C15" t="str">
+        <v>auxiliar1@fireandcontrols.com</v>
+      </c>
+      <c r="D15" t="str">
+        <v>+52 722 564 6696</v>
+      </c>
+      <c r="E15" t="str">
+        <v>FIRE AND CONTROLS</v>
+      </c>
+      <c r="F15" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>encontacto</v>
+      </c>
+      <c r="B16" t="str">
+        <v/>
+      </c>
+      <c r="C16" t="str">
+        <v>encontacto@mhmh.com.mx</v>
+      </c>
+      <c r="D16" t="str">
+        <v/>
+      </c>
+      <c r="E16" t="str">
+        <v>Mantenimiento Hidraulico Morales Hermanos SA de CV</v>
+      </c>
+      <c r="F16" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>karla.medina</v>
+      </c>
+      <c r="B17" t="str">
+        <v/>
+      </c>
+      <c r="C17" t="str">
+        <v>karla.medina@kof.com</v>
+      </c>
+      <c r="D17" t="str">
+        <v>+52 833 333 6535</v>
+      </c>
+      <c r="E17" t="str">
+        <v>RV INGENIERA ELECTRICA</v>
+      </c>
+      <c r="F17" t="str">
+        <v>Técnico de Seguridad</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>arconsindustry</v>
+      </c>
+      <c r="B18" t="str">
+        <v/>
+      </c>
+      <c r="C18" t="str">
+        <v>arconsindustry@gmail.com</v>
+      </c>
+      <c r="D18" t="str">
+        <v>+52 722 644 0868</v>
+      </c>
+      <c r="E18" t="str">
+        <v>ARQUITECTOS CH CONSTRUCTORES , INGENIERIA INDUSTRIAL DE TOLUCA</v>
+      </c>
+      <c r="F18" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>rhm_ihesa</v>
+      </c>
+      <c r="B19" t="str">
+        <v/>
+      </c>
+      <c r="C19" t="str">
+        <v>rhm_ihesa@yahoo.com.mx</v>
+      </c>
+      <c r="D19" t="str">
+        <v>+52 556 321 8848</v>
+      </c>
+      <c r="E19" t="str">
+        <v>RV INGENIERA ELECTRICA</v>
+      </c>
+      <c r="F19" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Nalleli.Garcia</v>
+      </c>
+      <c r="B20" t="str">
+        <v/>
+      </c>
+      <c r="C20" t="str">
+        <v>Nalleli.Garcia@abiger.com.mx</v>
+      </c>
+      <c r="D20" t="str">
+        <v>+52 222 117 6955</v>
+      </c>
+      <c r="E20" t="str">
+        <v>ABIGER S.A DE C.V</v>
+      </c>
+      <c r="F20" t="str">
+        <v>Técnico de Seguridad</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>chiapasegind</v>
+      </c>
+      <c r="B21" t="str">
+        <v/>
+      </c>
+      <c r="C21" t="str">
+        <v>chiapasegind@hotmail.com</v>
+      </c>
+      <c r="D21" t="str">
+        <v>+52 967 679 0284</v>
+      </c>
+      <c r="E21" t="str">
+        <v>MAPRIS SERVICIOS INDUSTRIALES S.A. DE C.V.</v>
+      </c>
+      <c r="F21" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>cristina.rodriguez</v>
+      </c>
+      <c r="B22" t="str">
+        <v/>
+      </c>
+      <c r="C22" t="str">
+        <v>cristina.rodriguez@kof.com</v>
+      </c>
+      <c r="D22" t="str">
+        <v>+52 443 145 0919</v>
+      </c>
+      <c r="E22" t="str">
+        <v>ARQUITECTOS CH CONSTRUCTORES , INGENIERIA INDUSTRIAL DE TOLUCA</v>
+      </c>
+      <c r="F22" t="str">
+        <v>Técnico de Seguridad</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>diegoiccisahernandez</v>
+      </c>
+      <c r="B23" t="str">
+        <v/>
+      </c>
+      <c r="C23" t="str">
+        <v>diegoiccisahernandez@gmail.com</v>
+      </c>
+      <c r="D23" t="str">
+        <v>+52 221 414 6148</v>
+      </c>
+      <c r="E23" t="str">
+        <v>DT LATAM S.A. DE C.V.</v>
+      </c>
+      <c r="F23" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>macroquim1</v>
+      </c>
+      <c r="B24" t="str">
+        <v/>
+      </c>
+      <c r="C24" t="str">
+        <v>macroquim1@hotmail.com</v>
+      </c>
+      <c r="D24" t="str">
+        <v>+52 554 993 0200</v>
+      </c>
+      <c r="E24" t="str">
+        <v>MACRO QUIMICA DEL CENTRO SA DE CV</v>
+      </c>
+      <c r="F24" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>federico.calderon</v>
+      </c>
+      <c r="B25" t="str">
+        <v/>
+      </c>
+      <c r="C25" t="str">
+        <v>federico.calderon@kof.com</v>
+      </c>
+      <c r="D25" t="str">
+        <v/>
+      </c>
+      <c r="E25" t="str">
+        <v>Mantenimiento Hidraulico Morales Hermanos SA de CV</v>
+      </c>
+      <c r="F25" t="str">
+        <v>Técnico de Seguridad</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>maires_2011</v>
+      </c>
+      <c r="B26" t="str">
+        <v/>
+      </c>
+      <c r="C26" t="str">
+        <v>maires_2011@yahoo.com.mx</v>
+      </c>
+      <c r="D26" t="str">
+        <v>+52 559 167 7232</v>
+      </c>
+      <c r="E26" t="str">
+        <v>MAIRES MANTENIMIENTO INDUSTRIAL REFACCIONES Y SERVICIOS</v>
+      </c>
+      <c r="F26" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>seguridadhebi</v>
+      </c>
+      <c r="B27" t="str">
+        <v/>
+      </c>
+      <c r="C27" t="str">
+        <v>seguridadhebi@yahoo.com</v>
+      </c>
+      <c r="D27" t="str">
+        <v>+52 993 428 2972</v>
+      </c>
+      <c r="E27" t="str">
+        <v>HEBI Enterprise Group</v>
+      </c>
+      <c r="F27" t="str">
+        <v>Técnico de Seguridad</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>federicocalderon121</v>
+      </c>
+      <c r="B28" t="str">
+        <v/>
+      </c>
+      <c r="C28" t="str">
+        <v>federicocalderon121@gmail.com</v>
+      </c>
+      <c r="D28" t="str">
+        <v/>
+      </c>
+      <c r="E28" t="str">
+        <v>Mantenimiento Hidraulico Morales Hermanos SA de CV</v>
+      </c>
+      <c r="F28" t="str">
+        <v>Técnico de Seguridad</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>abraham29rodriguez</v>
+      </c>
+      <c r="B29" t="str">
+        <v/>
+      </c>
+      <c r="C29" t="str">
+        <v>abraham29rodriguez@gmail.com</v>
+      </c>
+      <c r="D29" t="str">
+        <v>+52 753 118 9859</v>
+      </c>
+      <c r="E29" t="str">
+        <v>Altec Ingeniería y Arquitectura</v>
+      </c>
+      <c r="F29" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>lmatamoros</v>
+      </c>
+      <c r="B30" t="str">
+        <v/>
+      </c>
+      <c r="C30" t="str">
+        <v>lmatamoros@sysep.com.mx</v>
+      </c>
+      <c r="D30" t="str">
+        <v>+52 233 130 4317</v>
+      </c>
+      <c r="E30" t="str">
+        <v>SISTEMAS Y SERVICIOS ELECTRICOS DE PUEBLA</v>
+      </c>
+      <c r="F30" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>juancarlos.ara</v>
+      </c>
+      <c r="B31" t="str">
+        <v/>
+      </c>
+      <c r="C31" t="str">
+        <v>juancarlos.ara@mapris.com.mx</v>
+      </c>
+      <c r="D31" t="str">
+        <v>+52 961 235 9670</v>
+      </c>
+      <c r="E31" t="str">
+        <v>MAPRIS SERVICIOS INDUSTRIALES S.A. DE C.V.</v>
+      </c>
+      <c r="F31" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>alejandraramosr75</v>
+      </c>
+      <c r="B32" t="str">
+        <v/>
+      </c>
+      <c r="C32" t="str">
+        <v>alejandraramosr75@gmail.com</v>
+      </c>
+      <c r="D32" t="str">
+        <v>+1 (331) 924-7192</v>
+      </c>
+      <c r="E32" t="str">
+        <v>KEYSECURE</v>
+      </c>
+      <c r="F32" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>ing_cvmiranda</v>
+      </c>
+      <c r="B33" t="str">
+        <v/>
+      </c>
+      <c r="C33" t="str">
+        <v>ing_cvmiranda@hotmail.com</v>
+      </c>
+      <c r="D33" t="str">
+        <v>+52 443 581 8188</v>
+      </c>
+      <c r="E33" t="str">
+        <v>CESAR GERARDO VALDES MIRANDA</v>
+      </c>
+      <c r="F33" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>paola.mora</v>
+      </c>
+      <c r="B34" t="str">
+        <v/>
+      </c>
+      <c r="C34" t="str">
+        <v>paola.mora@kof.com</v>
+      </c>
+      <c r="D34" t="str">
+        <v>+34 710 402 771</v>
+      </c>
+      <c r="E34" t="str">
+        <v>KEYSECURE</v>
+      </c>
+      <c r="F34" t="str">
+        <v>Técnico de Seguridad</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>ivonne.aragon</v>
+      </c>
+      <c r="B35" t="str">
+        <v/>
+      </c>
+      <c r="C35" t="str">
+        <v>ivonne.aragon@betagc.com</v>
+      </c>
+      <c r="D35" t="str">
+        <v>+1 (551) 959-0281</v>
+      </c>
+      <c r="E35" t="str">
+        <v>BUFETE DE ESPECIALISTAS EN TRATAMIENTO DE AGUAS</v>
+      </c>
+      <c r="F35" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>HECTOR.JIMENEZ</v>
+      </c>
+      <c r="B36" t="str">
+        <v/>
+      </c>
+      <c r="C36" t="str">
+        <v>HECTOR.JIMENEZ@VIULKA.COM</v>
+      </c>
+      <c r="D36" t="str">
+        <v>+52 553 916 5773</v>
+      </c>
+      <c r="E36" t="str">
+        <v>GRUPO VIULKA</v>
+      </c>
+      <c r="F36" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>lonas_hergo</v>
+      </c>
+      <c r="B37" t="str">
+        <v/>
+      </c>
+      <c r="C37" t="str">
+        <v>lonas_hergo@hotmail.com</v>
+      </c>
+      <c r="D37" t="str">
+        <v>+52 443 318 0947</v>
+      </c>
+      <c r="E37" t="str">
+        <v>MARIA ANTONIETA CASTRO BERNAL LONAS HERGO</v>
+      </c>
+      <c r="F37" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Seguridad.ch</v>
+      </c>
+      <c r="B38" t="str">
+        <v/>
+      </c>
+      <c r="C38" t="str">
+        <v>Seguridad.ch@mapris.com.mx</v>
+      </c>
+      <c r="D38" t="str">
+        <v>+52 967 679 0289</v>
+      </c>
+      <c r="E38" t="str">
+        <v>MAPRIS SERVICIOS INDUSTRIALES S.A. DE C.V.</v>
+      </c>
+      <c r="F38" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>arnulfovega267</v>
+      </c>
+      <c r="B39" t="str">
+        <v/>
+      </c>
+      <c r="C39" t="str">
+        <v>arnulfovega267@gmail.com</v>
+      </c>
+      <c r="D39" t="str">
+        <v>+52 237 105 5361</v>
+      </c>
+      <c r="E39" t="str">
+        <v>MAPRIS SERVICIOS INDUSTRIALES S.A. DE C.V.</v>
+      </c>
+      <c r="F39" t="str">
+        <v>Técnico de Seguridad</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>irving.bautista</v>
+      </c>
+      <c r="B40" t="str">
+        <v/>
+      </c>
+      <c r="C40" t="str">
+        <v>irving.bautista@viulka.com</v>
+      </c>
+      <c r="D40" t="str">
+        <v>+52 564 874 9222</v>
+      </c>
+      <c r="E40" t="str">
+        <v>GRUPO VIULKA</v>
+      </c>
+      <c r="F40" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>seginddiimsa</v>
+      </c>
+      <c r="B41" t="str">
+        <v/>
+      </c>
+      <c r="C41" t="str">
+        <v>seginddiimsa@hotmail.com</v>
+      </c>
+      <c r="D41" t="str">
+        <v>+52 722 843 8093</v>
+      </c>
+      <c r="E41" t="str">
+        <v>DESARROLLO EN INGENIERIA INTEGRAL MACEDO SA DE CV</v>
+      </c>
+      <c r="F41" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>ericrpmero92</v>
+      </c>
+      <c r="B42" t="str">
+        <v/>
+      </c>
+      <c r="C42" t="str">
+        <v>ericrpmero92@yahoo.com</v>
+      </c>
+      <c r="D42" t="str">
+        <v>+52 722 118 1738</v>
+      </c>
+      <c r="E42" t="str">
+        <v>GL COVERING, S.A. DE C.V.</v>
+      </c>
+      <c r="F42" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>fanguel092</v>
+      </c>
+      <c r="B43" t="str">
+        <v/>
+      </c>
+      <c r="C43" t="str">
+        <v>fanguel092@gmail.com</v>
+      </c>
+      <c r="D43" t="str">
+        <v/>
+      </c>
+      <c r="E43" t="str">
+        <v>ARGA MANTENIMIENTO Y SERVICIOS SA DE CV</v>
+      </c>
+      <c r="F43" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>eliana.hernandez</v>
+      </c>
+      <c r="B44" t="str">
+        <v/>
+      </c>
+      <c r="C44" t="str">
+        <v>eliana.hernandez@kof.com</v>
+      </c>
+      <c r="D44" t="str">
+        <v>+52 228 104 2338</v>
+      </c>
+      <c r="E44" t="str">
+        <v>JMM MANUFACTURAS</v>
+      </c>
+      <c r="F44" t="str">
+        <v>Técnico de Seguridad</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>gzurasi</v>
+      </c>
+      <c r="B45" t="str">
+        <v/>
+      </c>
+      <c r="C45" t="str">
+        <v>gzurasi@grupoicap.com</v>
+      </c>
+      <c r="D45" t="str">
+        <v>+52 668 114 5082</v>
+      </c>
+      <c r="E45" t="str">
+        <v>ingenieria de control y automatizacion del pacifico</v>
+      </c>
+      <c r="F45" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>daniela.suarez</v>
+      </c>
+      <c r="B46" t="str">
+        <v/>
+      </c>
+      <c r="C46" t="str">
+        <v>daniela.suarez@kof.com</v>
+      </c>
+      <c r="D46" t="str">
+        <v>+52 241 100 8663</v>
+      </c>
+      <c r="E46" t="str">
+        <v>GRUPO CASTELLONORATO</v>
+      </c>
+      <c r="F46" t="str">
+        <v>Técnico de Seguridad</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>seguridadmantoad</v>
+      </c>
+      <c r="B47" t="str">
+        <v/>
+      </c>
+      <c r="C47" t="str">
+        <v>seguridadmantoad@hotmail.com</v>
+      </c>
+      <c r="D47" t="str">
+        <v>+52 922 209 2091</v>
+      </c>
+      <c r="E47" t="str">
+        <v>MANTENIMIENTO INTEGRAL Y CONSTRUCCIONES GENERALES AD</v>
+      </c>
+      <c r="F47" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>seguridad.ch</v>
+      </c>
+      <c r="B48" t="str">
+        <v/>
+      </c>
+      <c r="C48" t="str">
+        <v>seguridad.ch@mapris.com.mx</v>
+      </c>
+      <c r="D48" t="str">
+        <v>+1 (228) 531-5521</v>
+      </c>
+      <c r="E48" t="str">
+        <v>MAPRIS SERVICIOS INDUSTRIALES S.A. DE C.V.</v>
+      </c>
+      <c r="F48" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>alberto.beristain</v>
+      </c>
+      <c r="B49" t="str">
+        <v/>
+      </c>
+      <c r="C49" t="str">
+        <v>alberto.beristain@kof.com</v>
+      </c>
+      <c r="D49" t="str">
+        <v>+52 553 206 6702</v>
+      </c>
+      <c r="E49" t="str">
+        <v>GRUPO VIULKA</v>
+      </c>
+      <c r="F49" t="str">
+        <v>Técnico de Seguridad</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>recursos.humanos</v>
+      </c>
+      <c r="B50" t="str">
+        <v/>
+      </c>
+      <c r="C50" t="str">
+        <v>recursos.humanos@iccisa.com.mx</v>
+      </c>
+      <c r="D50" t="str">
+        <v>+52 555 509 7196</v>
+      </c>
+      <c r="E50" t="str">
+        <v>INGENIERIA  EN CONSERVACION CONTINUA E INDUSTRIAL</v>
+      </c>
+      <c r="F50" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>rh</v>
+      </c>
+      <c r="B51" t="str">
+        <v/>
+      </c>
+      <c r="C51" t="str">
+        <v>rh@telca.com.mx</v>
+      </c>
+      <c r="D51" t="str">
+        <v>+55 3005 1489</v>
+      </c>
+      <c r="E51" t="str">
+        <v>TEICA S.A. DE C.V.</v>
+      </c>
+      <c r="F51" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>miguel.mendez</v>
+      </c>
+      <c r="B52" t="str">
+        <v/>
+      </c>
+      <c r="C52" t="str">
+        <v>miguel.mendez@kof.com</v>
+      </c>
+      <c r="D52" t="str">
+        <v>+52 557 904 6507</v>
+      </c>
+      <c r="E52" t="str">
+        <v>MAPRIS SERVICIOS INDUSTRIALES S.A. DE C.V.</v>
+      </c>
+      <c r="F52" t="str">
+        <v>Técnico de Seguridad</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>administracion</v>
+      </c>
+      <c r="B53" t="str">
+        <v/>
+      </c>
+      <c r="C53" t="str">
+        <v>administracion@mapris.com.mx</v>
+      </c>
+      <c r="D53" t="str">
+        <v>+1 246 168 2457</v>
+      </c>
+      <c r="E53" t="str">
+        <v>MAPRIS SERVICIOS INDUSTRIALES S.A. DE C.V.</v>
+      </c>
+      <c r="F53" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>novica240974</v>
+      </c>
+      <c r="B54" t="str">
+        <v/>
+      </c>
+      <c r="C54" t="str">
+        <v>novica240974@gmail.com</v>
+      </c>
+      <c r="D54" t="str">
+        <v>+52 753 118 9859</v>
+      </c>
+      <c r="E54" t="str">
+        <v>Altec Ingeniería y Arquitectura</v>
+      </c>
+      <c r="F54" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>SEGURIDAD</v>
+      </c>
+      <c r="B55" t="str">
+        <v/>
+      </c>
+      <c r="C55" t="str">
+        <v>SEGURIDAD@GRUPOSEMAIN.COM</v>
+      </c>
+      <c r="D55" t="str">
+        <v>+52 241 116 7381</v>
+      </c>
+      <c r="E55" t="str">
+        <v>GRUPO INDUSTRIAL SEMAIN</v>
+      </c>
+      <c r="F55" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>eliasroman1ctic</v>
+      </c>
+      <c r="B56" t="str">
+        <v/>
+      </c>
+      <c r="C56" t="str">
+        <v>eliasroman1ctic@gmail.com</v>
+      </c>
+      <c r="D56" t="str">
+        <v>+52 271 246 7214</v>
+      </c>
+      <c r="E56" t="str">
+        <v>JESUS BERNABE SALAZAR</v>
+      </c>
+      <c r="F56" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>sales</v>
+      </c>
+      <c r="B57" t="str">
+        <v/>
+      </c>
+      <c r="C57" t="str">
+        <v>sales@autowash.com.mx</v>
+      </c>
+      <c r="D57" t="str">
+        <v>+1 (525) 556-3401</v>
+      </c>
+      <c r="E57" t="str">
+        <v>GRUPO CASTELLONORATO</v>
+      </c>
+      <c r="F57" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>sergio.narvaez</v>
+      </c>
+      <c r="B58" t="str">
+        <v/>
+      </c>
+      <c r="C58" t="str">
+        <v>sergio.narvaez@kof.com</v>
+      </c>
+      <c r="D58" t="str">
+        <v>+52 472 105 8337</v>
+      </c>
+      <c r="E58" t="str">
+        <v>GRUAS INDUSTRIALES DEL BAJIO</v>
+      </c>
+      <c r="F58" t="str">
+        <v>Técnico de Seguridad</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>gerencia</v>
+      </c>
+      <c r="B59" t="str">
+        <v/>
+      </c>
+      <c r="C59" t="str">
+        <v>gerencia@argam.mx</v>
+      </c>
+      <c r="D59" t="str">
+        <v>+52 833 290 2244</v>
+      </c>
+      <c r="E59" t="str">
+        <v>ARGA MANTENIMIENTO Y SERVICIOS SA DE CV</v>
+      </c>
+      <c r="F59" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>eguevara</v>
+      </c>
+      <c r="B60" t="str">
+        <v/>
+      </c>
+      <c r="C60" t="str">
+        <v>eguevara@glsywac.com</v>
+      </c>
+      <c r="D60" t="str">
+        <v>+52 552 702 9462</v>
+      </c>
+      <c r="E60" t="str">
+        <v>ANALISIS Y DIAGNOSTICO DE RIESGOS</v>
+      </c>
+      <c r="F60" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>raulservinramirez</v>
+      </c>
+      <c r="B61" t="str">
+        <v/>
+      </c>
+      <c r="C61" t="str">
+        <v>raulservinramirez@outlook.com</v>
+      </c>
+      <c r="D61" t="str">
+        <v>+1 (561) 694-9743</v>
+      </c>
+      <c r="E61" t="str">
+        <v>Security Systems Proyects (SESYPRO)</v>
+      </c>
+      <c r="F61" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>domingo.casasola</v>
+      </c>
+      <c r="B62" t="str">
+        <v/>
+      </c>
+      <c r="C62" t="str">
+        <v>domingo.casasola@yahoo.com.mx</v>
+      </c>
+      <c r="D62" t="str">
+        <v>+52 241 127 5194</v>
+      </c>
+      <c r="E62" t="str">
+        <v>MAPRIS SERVICIOS INDUSTRIALES S.A. DE C.V.</v>
+      </c>
+      <c r="F62" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>ASISTENTE.VENTAS</v>
+      </c>
+      <c r="B63" t="str">
+        <v/>
+      </c>
+      <c r="C63" t="str">
+        <v>ASISTENTE.VENTAS@MONTILLA.COM</v>
+      </c>
+      <c r="D63" t="str">
+        <v>+52 614 160 9660</v>
+      </c>
+      <c r="E63" t="str">
+        <v>INDUSTRIAS MONTILLA</v>
+      </c>
+      <c r="F63" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>yesenia.paita</v>
+      </c>
+      <c r="B64" t="str">
+        <v/>
+      </c>
+      <c r="C64" t="str">
+        <v>yesenia.paita@kof.com</v>
+      </c>
+      <c r="D64" t="str">
+        <v>+55 48 11558 332</v>
+      </c>
+      <c r="E64" t="str">
+        <v>ANALISIS Y DIAGNOSTICO DE RIESGOS</v>
+      </c>
+      <c r="F64" t="str">
+        <v>Técnico de Seguridad</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>asistente.ventas</v>
+      </c>
+      <c r="B65" t="str">
+        <v/>
+      </c>
+      <c r="C65" t="str">
+        <v>asistente.ventas@montilla.com</v>
+      </c>
+      <c r="D65" t="str">
+        <v>+52 614 160 9660</v>
+      </c>
+      <c r="E65" t="str">
+        <v>INDUSTRIAS MONTILLA</v>
+      </c>
+      <c r="F65" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>juan.cruz</v>
+      </c>
+      <c r="B66" t="str">
+        <v/>
+      </c>
+      <c r="C66" t="str">
+        <v>juan.cruz@kof.com</v>
+      </c>
+      <c r="D66" t="str">
+        <v>+52 554 140 6413</v>
+      </c>
+      <c r="E66" t="str">
+        <v>INDUSTRIAS MONTILLA</v>
+      </c>
+      <c r="F66" t="str">
+        <v>Técnico de Seguridad</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>ajrhindustrial</v>
+      </c>
+      <c r="B67" t="str">
+        <v/>
+      </c>
+      <c r="C67" t="str">
+        <v>ajrhindustrial@gmail.com</v>
+      </c>
+      <c r="D67" t="str">
+        <v>+52 246 134 1074</v>
+      </c>
+      <c r="E67" t="str">
+        <v>DT LATAM S.A. DE C.V.</v>
+      </c>
+      <c r="F67" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>ana.rosales</v>
+      </c>
+      <c r="B68" t="str">
+        <v/>
+      </c>
+      <c r="C68" t="str">
+        <v>ana.rosales@cimaingenieros.com</v>
+      </c>
+      <c r="D68" t="str">
+        <v>+52 462 188 5832</v>
+      </c>
+      <c r="E68" t="str">
+        <v>CIMA INGENIERIA MEXICANA SA DE CV</v>
+      </c>
+      <c r="F68" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>RESIDENTE1</v>
+      </c>
+      <c r="B69" t="str">
+        <v/>
+      </c>
+      <c r="C69" t="str">
+        <v>RESIDENTE1@NIEGOZ.COM</v>
+      </c>
+      <c r="D69" t="str">
+        <v>+52 221 106 9294</v>
+      </c>
+      <c r="E69" t="str">
+        <v>PROVEEDORA NIEGOZ</v>
+      </c>
+      <c r="F69" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>rosalia.granados</v>
+      </c>
+      <c r="B70" t="str">
+        <v/>
+      </c>
+      <c r="C70" t="str">
+        <v>rosalia.granados@kof.com</v>
+      </c>
+      <c r="D70" t="str">
+        <v>+46 23 06 56 05</v>
+      </c>
+      <c r="E70" t="str">
+        <v>GRUAS INDUSTRIALES DEL BAJIO</v>
+      </c>
+      <c r="F70" t="str">
+        <v>Técnico de Seguridad</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>seguridad.aux1</v>
+      </c>
+      <c r="B71" t="str">
+        <v/>
+      </c>
+      <c r="C71" t="str">
+        <v>seguridad.aux1@isacorporativo.mx</v>
+      </c>
+      <c r="D71" t="str">
+        <v>+52 271 255 7485</v>
+      </c>
+      <c r="E71" t="str">
+        <v>JESUS BERNABE SALAZAR</v>
+      </c>
+      <c r="F71" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>ricardo.arellano</v>
+      </c>
+      <c r="B72" t="str">
+        <v/>
+      </c>
+      <c r="C72" t="str">
+        <v>ricardo.arellano@kof.com</v>
+      </c>
+      <c r="D72" t="str">
+        <v/>
+      </c>
+      <c r="E72" t="str">
+        <v>GRUPO RAMAGAS SA DE CV</v>
+      </c>
+      <c r="F72" t="str">
+        <v>Técnico de Seguridad</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>cavalconstrucciones19</v>
+      </c>
+      <c r="B73" t="str">
+        <v/>
+      </c>
+      <c r="C73" t="str">
+        <v>cavalconstrucciones19@gmail.com</v>
+      </c>
+      <c r="D73" t="str">
+        <v>+52 744 383 9504</v>
+      </c>
+      <c r="E73" t="str">
+        <v>CAVAL CONSTRUCCIONES Y MANTENIMIENTO</v>
+      </c>
+      <c r="F73" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>monserrat.llave</v>
+      </c>
+      <c r="B74" t="str">
+        <v/>
+      </c>
+      <c r="C74" t="str">
+        <v>monserrat.llave@kof.com</v>
+      </c>
+      <c r="D74" t="str">
+        <v>+52 229 126 2802</v>
+      </c>
+      <c r="E74" t="str">
+        <v>GRUPO VIULKA</v>
+      </c>
+      <c r="F74" t="str">
+        <v>Técnico de Seguridad</v>
+      </c>
+    </row>
+    <row r="75" xml:space="preserve">
+      <c r="A75" t="str">
+        <v>lorena.medrano</v>
+      </c>
+      <c r="B75" t="str">
+        <v/>
+      </c>
+      <c r="C75" t="str">
+        <v>lorena.medrano@en-ti.com</v>
+      </c>
+      <c r="D75" t="str">
+        <v>+52 554 870 4694</v>
+      </c>
+      <c r="E75" t="str" xml:space="preserve">
+        <v xml:space="preserve">ESPECIALISTAS NACIONALES EN TECNOLOGIA E
+INNOVACION S DE RL DE CV</v>
+      </c>
+      <c r="F75" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>gerencia</v>
+      </c>
+      <c r="B76" t="str">
+        <v/>
+      </c>
+      <c r="C76" t="str">
+        <v>gerencia@argams.mx</v>
+      </c>
+      <c r="D76" t="str">
+        <v/>
+      </c>
+      <c r="E76" t="str">
+        <v>ARGA MANTENIMIENTO Y SERVICIOS SA DE CV</v>
+      </c>
+      <c r="F76" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>rhn_ihesa</v>
+      </c>
+      <c r="B77" t="str">
+        <v/>
+      </c>
+      <c r="C77" t="str">
+        <v>rhn_ihesa@yahoo.com.mx</v>
+      </c>
+      <c r="D77" t="str">
+        <v>+52 556 321 8848</v>
+      </c>
+      <c r="E77" t="str">
+        <v>RV INGENIERA ELECTRICA</v>
+      </c>
+      <c r="F77" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>silvia.vidal</v>
+      </c>
+      <c r="B78" t="str">
+        <v/>
+      </c>
+      <c r="C78" t="str">
+        <v>silvia.vidal@kof.com</v>
+      </c>
+      <c r="D78" t="str">
+        <v>+52 273 123 2928</v>
+      </c>
+      <c r="E78" t="str">
+        <v>GRUPO VIULKA</v>
+      </c>
+      <c r="F78" t="str">
+        <v>Técnico de Seguridad</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>ecoind</v>
+      </c>
+      <c r="B79" t="str">
+        <v/>
+      </c>
+      <c r="C79" t="str">
+        <v>ecoind@prodigy.net.mx</v>
+      </c>
+      <c r="D79" t="str">
+        <v>+52 554 265 2904</v>
+      </c>
+      <c r="E79" t="str">
+        <v>GRUPO CASTELLONORATO</v>
+      </c>
+      <c r="F79" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>isa.asociados</v>
+      </c>
+      <c r="B80" t="str">
+        <v/>
+      </c>
+      <c r="C80" t="str">
+        <v>isa.asociados@live.com.mx</v>
+      </c>
+      <c r="D80" t="str">
+        <v>+52 272 356 0731</v>
+      </c>
+      <c r="E80" t="str">
+        <v>JESUS BERNABE SALAZAR</v>
+      </c>
+      <c r="F80" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>mjlopez</v>
+      </c>
+      <c r="B81" t="str">
+        <v/>
+      </c>
+      <c r="C81" t="str">
+        <v>mjlopez@momatt.com</v>
+      </c>
+      <c r="D81" t="str">
+        <v>+52 555 008 7611</v>
+      </c>
+      <c r="E81" t="str">
+        <v>MOMATT</v>
+      </c>
+      <c r="F81" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>admon_imse</v>
+      </c>
+      <c r="B82" t="str">
+        <v/>
+      </c>
+      <c r="C82" t="str">
+        <v>admon_imse@hotmail.com</v>
+      </c>
+      <c r="D82" t="str">
+        <v>+961 1 664 312</v>
+      </c>
+      <c r="E82" t="str">
+        <v>RAFAEL SOLORZANO RUIZ</v>
+      </c>
+      <c r="F82" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>brayan.gama</v>
+      </c>
+      <c r="B83" t="str">
+        <v/>
+      </c>
+      <c r="C83" t="str">
+        <v>brayan.gama@kof.com</v>
+      </c>
+      <c r="D83" t="str">
+        <v>+52 479 101 1340</v>
+      </c>
+      <c r="E83" t="str">
+        <v>GRUAS INDUSTRIALES DEL BAJIO</v>
+      </c>
+      <c r="F83" t="str">
+        <v>Técnico de Seguridad</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>marcoantonio.rodriguez</v>
+      </c>
+      <c r="B84" t="str">
+        <v/>
+      </c>
+      <c r="C84" t="str">
+        <v>marcoantonio.rodriguez@kof.com</v>
+      </c>
+      <c r="D84" t="str">
+        <v>+52 555 451 4090</v>
+      </c>
+      <c r="E84" t="str">
+        <v>Mantenimiento Hidraulico Morales Hermanos SA de CV</v>
+      </c>
+      <c r="F84" t="str">
+        <v>Técnico de Seguridad</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>luis.torres</v>
+      </c>
+      <c r="B85" t="str">
+        <v/>
+      </c>
+      <c r="C85" t="str">
+        <v>luis.torres@kof.com</v>
+      </c>
+      <c r="D85" t="str">
+        <v>+52 285 109 4160</v>
+      </c>
+      <c r="E85" t="str">
+        <v>RV INGENIERA ELECTRICA</v>
+      </c>
+      <c r="F85" t="str">
+        <v>Técnico de Seguridad</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>chinodosm</v>
+      </c>
+      <c r="B86" t="str">
+        <v/>
+      </c>
+      <c r="C86" t="str">
+        <v>chinodosm@gmail.com</v>
+      </c>
+      <c r="D86" t="str">
+        <v>+52 561 052 1784</v>
+      </c>
+      <c r="E86" t="str">
+        <v>KEYSECURE</v>
+      </c>
+      <c r="F86" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>aux_seguridad</v>
+      </c>
+      <c r="B87" t="str">
+        <v/>
+      </c>
+      <c r="C87" t="str">
+        <v>aux_seguridad@gruasalpha.mx</v>
+      </c>
+      <c r="D87" t="str">
+        <v/>
+      </c>
+      <c r="E87" t="str">
+        <v>GRUAS INDUSTRIALES DEL BAJIO</v>
+      </c>
+      <c r="F87" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>mayra.ramirez</v>
+      </c>
+      <c r="B88" t="str">
+        <v/>
+      </c>
+      <c r="C88" t="str">
+        <v>mayra.ramirez@kof.com</v>
+      </c>
+      <c r="D88" t="str">
+        <v>+52 556 111 3026</v>
+      </c>
+      <c r="E88" t="str">
+        <v>GRUPO VIULKA</v>
+      </c>
+      <c r="F88" t="str">
+        <v>Técnico de Seguridad</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>carina.lozano</v>
+      </c>
+      <c r="B89" t="str">
+        <v/>
+      </c>
+      <c r="C89" t="str">
+        <v>carina.lozano@kof.com</v>
+      </c>
+      <c r="D89" t="str">
+        <v>+52 553 363 9872</v>
+      </c>
+      <c r="E89" t="str">
+        <v>MOMATT</v>
+      </c>
+      <c r="F89" t="str">
+        <v>Técnico de Seguridad</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>sandra.nieves</v>
+      </c>
+      <c r="B90" t="str">
+        <v/>
+      </c>
+      <c r="C90" t="str">
+        <v>sandra.nieves@ieepm.com</v>
+      </c>
+      <c r="D90" t="str">
+        <v/>
+      </c>
+      <c r="E90" t="str">
+        <v>IEEPM, INGENIEROS ESPECIALISTAS EN PROYECTOS Y MANTENIMIENTO</v>
+      </c>
+      <c r="F90" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>franklin.landero</v>
+      </c>
+      <c r="B91" t="str">
+        <v/>
+      </c>
+      <c r="C91" t="str">
+        <v>franklin.landero@kof.com</v>
+      </c>
+      <c r="D91" t="str">
+        <v/>
+      </c>
+      <c r="E91" t="str">
+        <v>MANTENIMIENTO CHARCOP EMYJOO SA DE CV</v>
+      </c>
+      <c r="F91" t="str">
+        <v>Técnico de Seguridad</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>arturo.montes</v>
+      </c>
+      <c r="B92" t="str">
+        <v/>
+      </c>
+      <c r="C92" t="str">
+        <v>arturo.montes@compresoresmuro.com</v>
+      </c>
+      <c r="D92" t="str">
+        <v/>
+      </c>
+      <c r="E92" t="str">
+        <v>Compresores Muro</v>
+      </c>
+      <c r="F92" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>20191266</v>
+      </c>
+      <c r="B93" t="str">
+        <v/>
+      </c>
+      <c r="C93" t="str">
+        <v>20191266@uatx.mx</v>
+      </c>
+      <c r="D93" t="str">
+        <v/>
+      </c>
+      <c r="E93" t="str">
+        <v>HEMMSA HERNANDEZ MORA MONTAJES</v>
+      </c>
+      <c r="F93" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>cmiranda.mirmusa</v>
+      </c>
+      <c r="B94" t="str">
+        <v/>
+      </c>
+      <c r="C94" t="str">
+        <v>cmiranda.mirmusa@gmail.com</v>
+      </c>
+      <c r="D94" t="str">
+        <v>+52 561 995 4369</v>
+      </c>
+      <c r="E94" t="str">
+        <v>COMERCIALIZADORA MIRMUSA</v>
+      </c>
+      <c r="F94" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>scm.aurus</v>
+      </c>
+      <c r="B95" t="str">
+        <v/>
+      </c>
+      <c r="C95" t="str">
+        <v>scm.aurus@yahoo.com</v>
+      </c>
+      <c r="D95" t="str">
+        <v>+52 351 118 1208</v>
+      </c>
+      <c r="E95" t="str">
+        <v>SCM AURUS</v>
+      </c>
+      <c r="F95" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>cesar_carrera_1</v>
+      </c>
+      <c r="B96" t="str">
+        <v/>
+      </c>
+      <c r="C96" t="str">
+        <v>cesar_carrera_1@hotmail.com</v>
+      </c>
+      <c r="D96" t="str">
+        <v>+52 554 381 8556</v>
+      </c>
+      <c r="E96" t="str">
+        <v>CEMEX CONCRETOS</v>
+      </c>
+      <c r="F96" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>alejandra.loredo</v>
+      </c>
+      <c r="B97" t="str">
+        <v/>
+      </c>
+      <c r="C97" t="str">
+        <v>alejandra.loredo@targetrobotics.com</v>
+      </c>
+      <c r="D97" t="str">
+        <v>+52 444 247 5010</v>
+      </c>
+      <c r="E97" t="str">
+        <v>TARGET ROBOTICS</v>
+      </c>
+      <c r="F97" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>ALEJANDRO.HERNANDEZO</v>
+      </c>
+      <c r="B98" t="str">
+        <v/>
+      </c>
+      <c r="C98" t="str">
+        <v>ALEJANDRO.HERNANDEZO@KOF.COM</v>
+      </c>
+      <c r="D98" t="str">
+        <v>+52 427 100 6232</v>
+      </c>
+      <c r="E98" t="str">
+        <v>DT LATAM S.A. DE C.V.</v>
+      </c>
+      <c r="F98" t="str">
+        <v>Técnico de Seguridad</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>maria.gil</v>
+      </c>
+      <c r="B99" t="str">
+        <v/>
+      </c>
+      <c r="C99" t="str">
+        <v>maria.gil@globalfl.com.mx</v>
+      </c>
+      <c r="D99" t="str">
+        <v/>
+      </c>
+      <c r="E99" t="str">
+        <v>MONTACARGAS Y PARTES ROCA</v>
+      </c>
+      <c r="F99" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>seguridadfsingenieria</v>
+      </c>
+      <c r="B100" t="str">
+        <v/>
+      </c>
+      <c r="C100" t="str">
+        <v>seguridadfsingenieria@gmail.com</v>
+      </c>
+      <c r="D100" t="str">
+        <v>+52 241 118 7663</v>
+      </c>
+      <c r="E100" t="str">
+        <v>JUAN MANUEL FLORES SANCHEZ</v>
+      </c>
+      <c r="F100" t="str">
+        <v>Contratista</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>direccionadministrativa</v>
+      </c>
+      <c r="B101" t="str">
+        <v/>
+      </c>
+      <c r="C101" t="str">
+        <v>direccionadministrativa@solucionessdc.com</v>
+      </c>
+      <c r="D101" t="str">
+        <v>+1 (524) 510-8082</v>
+      </c>
+      <c r="E101" t="str">
+        <v>tecsisco 2022</v>
+      </c>
+      <c r="F101" t="str">
+        <v>Contratista</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H2"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="2" width="40.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
-    <col min="4" max="4" width="30.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Campo</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Descripcion</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Requerido</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Ejemplo</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>=== INSTRUCCIONES ===</v>
-      </c>
-      <c r="B2" t="str">
-        <v/>
-      </c>
-      <c r="C2" t="str">
-        <v/>
-      </c>
-      <c r="D2" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Plantilla: contactos</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Contactos externos (proveedores, soporte)</v>
-      </c>
-      <c r="C3" t="str">
-        <v/>
-      </c>
-      <c r="D3" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v/>
-      </c>
-      <c r="B4" t="str">
-        <v/>
-      </c>
-      <c r="C4" t="str">
-        <v/>
-      </c>
-      <c r="D4" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>=== CAMPOS ===</v>
-      </c>
-      <c r="B5" t="str">
-        <v/>
-      </c>
-      <c r="C5" t="str">
-        <v/>
-      </c>
-      <c r="D5" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>nombre</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Nombre del contacto</v>
-      </c>
-      <c r="C6" t="str">
-        <v>SÍ</v>
-      </c>
-      <c r="D6" t="str">
-        <v>Juan Pérez</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>email</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Correo electrónico</v>
-      </c>
-      <c r="C7" t="str">
-        <v>No</v>
-      </c>
-      <c r="D7" t="str">
-        <v>juan@proveedor.com</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>telefono</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Teléfono</v>
-      </c>
-      <c r="C8" t="str">
-        <v>No</v>
-      </c>
-      <c r="D8" t="str">
-        <v>5512345678</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>movil</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Celular</v>
-      </c>
-      <c r="C9" t="str">
-        <v>No</v>
-      </c>
-      <c r="D9" t="str">
-        <v>5598765432</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>direccion</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Dirección</v>
-      </c>
-      <c r="C10" t="str">
-        <v>No</v>
-      </c>
-      <c r="D10" t="str">
-        <v>Av. Principal 123</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>ciudad</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Ciudad</v>
-      </c>
-      <c r="C11" t="str">
-        <v>No</v>
-      </c>
-      <c r="D11" t="str">
-        <v>CDMX</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>puesto</v>
-      </c>
-      <c r="B12" t="str">
-        <v>Puesto/Cargo</v>
-      </c>
-      <c r="C12" t="str">
-        <v>No</v>
-      </c>
-      <c r="D12" t="str">
-        <v>Gerente de Ventas</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>comentario</v>
-      </c>
-      <c r="B13" t="str">
-        <v>Notas</v>
-      </c>
-      <c r="C13" t="str">
-        <v>No</v>
-      </c>
-      <c r="D13" t="str">
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D13"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F101"/>
   </ignoredErrors>
 </worksheet>
 </file>